--- a/data/trans_dic/IP25-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,49; 97,95</t>
+          <t>92,41; 97,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,71; 98,99</t>
+          <t>97,76; 99,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,59; 98,42</t>
+          <t>95,83; 98,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,76</t>
+          <t>97,51; 99,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,89; 99,12</t>
+          <t>95,22; 98,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>96,15; 99,09</t>
+          <t>95,34; 98,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,0</t>
+          <t>95,79; 98,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>96,58; 98,78</t>
+          <t>97,15; 99,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,35; 98,48</t>
+          <t>96,36; 98,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,25</t>
+          <t>94,49; 97,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,76; 99,73</t>
+          <t>95,71; 98,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,83; 98,9</t>
+          <t>94,59; 98,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,51; 99,78</t>
+          <t>95,56; 98,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,22; 98,82</t>
+          <t>95,89; 99,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>95,34; 98,93</t>
+          <t>96,15; 99,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,79; 98,32</t>
+          <t>95,56; 98,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>97,15; 99,16</t>
+          <t>96,58; 98,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,36; 98,53</t>
+          <t>96,35; 98,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>68,28%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>76,54%</t>
+          <t>62,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,3%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>48,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>73,35%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,39; 73,29</t>
+          <t>38,65; 53,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,18; 80,47</t>
+          <t>54,71; 68,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,85; 81,49</t>
+          <t>54,48; 68,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 1,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,65; 77,13</t>
+          <t>43,36; 58,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,2; 75,0</t>
+          <t>50,57; 63,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,49; 75,23</t>
+          <t>48,66; 62,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0; 1,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,82; 73,73</t>
+          <t>42,85; 53,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>69,92; 76,36</t>
+          <t>53,8; 63,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>69,89; 76,56</t>
+          <t>54,58; 64,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,25</t>
+          <t>93,1; 97,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97,76; 99,73</t>
+          <t>97,43; 99,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,83; 98,9</t>
+          <t>94,86; 98,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,51; 99,78</t>
+          <t>95,38; 98,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,22; 98,82</t>
+          <t>94,33; 98,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>95,34; 98,93</t>
+          <t>95,4; 99,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,79; 98,32</t>
+          <t>95,0; 97,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,15; 99,16</t>
+          <t>96,74; 98,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,36; 98,53</t>
+          <t>95,85; 98,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,49; 97,95</t>
+          <t>91,82; 97,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,71; 98,99</t>
+          <t>95,23; 99,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,59; 98,42</t>
+          <t>96,48; 99,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,79</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>95,68; 99,5</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>95,63; 99,56</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>94,26; 98,49</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>94,58; 98,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 99,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>96,32; 98,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,4</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>95,56; 98,76</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>95,89; 99,12</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>96,15; 99,09</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,41</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>95,56; 98,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>96,58; 98,78</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>96,35; 98,48</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,44; 89,42</t>
+          <t>94,65; 98,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,46; 92,82</t>
+          <t>94,83; 99,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,59; 92,99</t>
+          <t>92,07; 97,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94,57; 98,7</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>94,96; 99,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95,86; 99,36</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>95,63; 98,18</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,06; 98,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>94,96; 98,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>87,54%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>91,25%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>91,32%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>90,31%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>89,08%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>89,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>88,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>90,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>85,48; 89,42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89,35; 92,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89,47; 92,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>88,22; 91,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>87,15; 90,9</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>88,05; 91,54</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>88,41; 92,04</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86,99; 90,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87,94; 91,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>87,56; 90,14</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>88,85; 91,43</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>89,26; 91,8</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87,5; 90,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>88,83; 91,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>89,31; 91,84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP25-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,65; 53,19</t>
+          <t>39,13; 53,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,71; 68,16</t>
+          <t>54,31; 67,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,48; 68,58</t>
+          <t>55,28; 69,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,36; 58,21</t>
+          <t>42,9; 58,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,57; 63,08</t>
+          <t>49,68; 63,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,66; 62,63</t>
+          <t>49,52; 62,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,85; 53,47</t>
+          <t>43,21; 53,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>53,8; 63,85</t>
+          <t>54,37; 63,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54,58; 64,18</t>
+          <t>54,22; 63,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,1; 97,43</t>
+          <t>92,82; 97,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97,43; 99,64</t>
+          <t>97,39; 99,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,86; 98,4</t>
+          <t>94,78; 98,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,38; 98,61</t>
+          <t>95,45; 98,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,33; 98,27</t>
+          <t>94,44; 98,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>95,4; 99,07</t>
+          <t>95,47; 98,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,0; 97,51</t>
+          <t>95,05; 97,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>96,74; 98,78</t>
+          <t>96,76; 98,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95,85; 98,33</t>
+          <t>95,87; 98,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,6</t>
+          <t>91,86; 97,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,4</t>
+          <t>95,43; 99,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,48; 99,67</t>
+          <t>96,28; 99,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>95,68; 99,5</t>
+          <t>95,58; 99,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,63; 99,56</t>
+          <t>95,58; 99,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,26; 98,49</t>
+          <t>94,04; 98,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,58; 98,21</t>
+          <t>94,46; 98,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>96,42; 99,14</t>
+          <t>96,6; 99,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,32; 98,93</t>
+          <t>96,34; 98,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,65; 98,43</t>
+          <t>94,72; 98,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,83; 99,07</t>
+          <t>94,65; 99,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,07; 97,68</t>
+          <t>92,48; 97,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,57; 98,7</t>
+          <t>94,43; 98,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,96; 99,08</t>
+          <t>94,47; 98,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,86; 99,36</t>
+          <t>95,96; 99,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,63; 98,18</t>
+          <t>95,42; 98,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96,06; 98,74</t>
+          <t>95,86; 98,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94,96; 98,27</t>
+          <t>95,1; 98,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,48; 89,42</t>
+          <t>85,42; 89,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,35; 92,79</t>
+          <t>89,42; 92,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,47; 92,81</t>
+          <t>89,6; 92,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,41; 92,04</t>
+          <t>88,42; 92,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,99; 90,73</t>
+          <t>87,0; 90,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,94; 91,53</t>
+          <t>87,8; 91,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,14</t>
+          <t>87,56; 90,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,83; 91,38</t>
+          <t>88,89; 91,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,31; 91,84</t>
+          <t>89,28; 91,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">

--- a/data/trans_dic/IP25-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>50,96%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>56,87%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55,87%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>45,99%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>61,26%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>62,45%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>50,96%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>56,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>55,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -724,57 +724,57 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,13; 53,1</t>
+          <t>43,14; 58,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,31; 67,95</t>
+          <t>49,97; 62,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,28; 69,74</t>
+          <t>48,67; 62,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,74</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39,27; 53,19</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54,09; 67,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>55,4; 69,16</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,64</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>42,9; 58,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>49,68; 63,62</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>49,52; 62,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,74</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,21; 53,83</t>
+          <t>42,77; 53,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,37; 63,61</t>
+          <t>54,39; 63,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54,22; 63,81</t>
+          <t>54,13; 63,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -796,37 +796,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>97,35%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>96,74%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97,77%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>95,55%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>98,94%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>96,84%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>97,35%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>96,74%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>97,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -864,57 +864,57 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,82; 97,4</t>
+          <t>95,3; 98,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97,39; 99,64</t>
+          <t>94,51; 98,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,78; 98,32</t>
+          <t>95,39; 99,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92,92; 97,24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>97,26; 99,75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>94,87; 98,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,69</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>95,45; 98,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>94,44; 98,33</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>95,47; 98,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,74</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,05; 97,63</t>
+          <t>95,03; 97,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>96,76; 98,73</t>
+          <t>96,76; 98,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95,87; 98,33</t>
+          <t>95,85; 98,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -936,37 +936,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>98,36%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>98,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96,99%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>95,18%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>98,13%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>98,75%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>98,36%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>98,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>96,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1004,57 +1004,57 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,86; 97,63</t>
+          <t>95,12; 99,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,43; 99,49</t>
+          <t>95,99; 99,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,28; 99,67</t>
+          <t>94,21; 98,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,82</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>91,45; 97,59</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>94,52; 99,41</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>96,67; 99,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,79</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>95,58; 99,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>95,58; 99,56</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>94,04; 98,58</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,82</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,46; 98,22</t>
+          <t>94,73; 98,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>96,6; 99,14</t>
+          <t>96,39; 99,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,34; 98,9</t>
+          <t>96,24; 98,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1076,37 +1076,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>97,26%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>97,56%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>98,17%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>96,89%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>97,54%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>95,69%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>97,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>97,56%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>98,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,72; 98,52</t>
+          <t>94,73; 98,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,65; 99,04</t>
+          <t>94,97; 99,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,48; 97,66</t>
+          <t>95,44; 99,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,43; 98,73</t>
+          <t>94,57; 98,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,47; 98,9</t>
+          <t>95,05; 98,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,96; 99,33</t>
+          <t>92,41; 97,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,42; 98,28</t>
+          <t>95,44; 98,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95,86; 98,67</t>
+          <t>95,95; 98,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95,1; 98,21</t>
+          <t>95,17; 98,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1216,37 +1216,37 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>90,31%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89,08%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>89,83%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>87,54%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>91,25%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>91,32%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>90,31%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>89,08%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>89,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,42; 89,41</t>
+          <t>88,22; 91,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,42; 92,96</t>
+          <t>87,15; 90,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,6; 92,85</t>
+          <t>88,05; 91,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,42; 92,07</t>
+          <t>85,44; 89,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,0; 90,79</t>
+          <t>89,46; 92,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,8; 91,44</t>
+          <t>89,59; 92,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,56; 90,27</t>
+          <t>87,56; 90,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,89; 91,53</t>
+          <t>88,85; 91,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,28; 91,67</t>
+          <t>89,26; 91,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
